--- a/spliced/falling/2023-03-25_17-58-20/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.016951510682702</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0186313893646001</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.1244637966156005</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0003054326225537</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-20/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2446515262126922</v>
+        <v>0.0189368221908807</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6548475623130798</v>
+        <v>-0.030695978552103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.099418319761753</v>
+        <v>-0.0142026171088218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6858489513397217</v>
+        <v>-0.0242818929255008</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4210388660430908</v>
+        <v>0.0024434609804302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0777326002717018</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.522595226764679</v>
+        <v>-0.0287106670439243</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0193949714303016</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1201877370476722</v>
+        <v>0.00534507073462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3229950070381164</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08460483700037</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8622363209724426</v>
+        <v>0.0277943685650825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2035708427429199</v>
+        <v>-0.0300851128995418</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0485637858510017</v>
+        <v>-0.0401643887162208</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2283108830451965</v>
+        <v>0.0236710291355848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0096211275085806</v>
+        <v>-0.0271835029125213</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.751795291900635</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="C7" t="n">
-        <v>2.73774528503418</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.817476868629456</v>
+        <v>-0.0245873257517814</v>
       </c>
       <c r="B8" t="n">
-        <v>7.313278675079346</v>
+        <v>-0.0226020142436027</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.927571773529053</v>
+        <v>-0.0163406450301408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7956519722938538</v>
+        <v>-0.0479529201984405</v>
       </c>
       <c r="B9" t="n">
-        <v>2.105194330215454</v>
+        <v>0.07635815441608421</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7250970602035522</v>
+        <v>-0.1252273768186569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1913535445928573</v>
+        <v>0.1218676194548606</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.910022854804993</v>
+        <v>0.3381139039993286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7344127297401428</v>
+        <v>-0.0650571510195732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2770273983478546</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6440047025680542</v>
+        <v>0.6548475623130798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5427537560462952</v>
+        <v>0.099418319761753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4552473127841949</v>
+        <v>-0.6858489513397217</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.961766481399536</v>
+        <v>0.4210388660430908</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.498757839202881</v>
+        <v>0.0777326002717018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.00335975876078</v>
+        <v>-0.522595226764679</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4912883639335632</v>
+        <v>0.0193949714303016</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5406157374382019</v>
+        <v>-0.1201877370476722</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1117883399128913</v>
+        <v>-0.3229950070381164</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2916881442070007</v>
+        <v>-0.08460483700037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0818559452891349</v>
+        <v>-0.8622363209724426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1504255682229995</v>
+        <v>0.2035708427429199</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.470518946647644</v>
+        <v>-0.0485637858510017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2368630021810531</v>
+        <v>-0.2283108830451965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1156062483787536</v>
+        <v>-0.0096211275085806</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0591012127697467</v>
+        <v>-2.751795291900635</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1562287807464599</v>
+        <v>2.73774528503418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0158824957907199</v>
+        <v>1.817476868629456</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0618501044809818</v>
+        <v>7.313278675079346</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.14553864300251</v>
+        <v>-2.927571773529053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0102319931611418</v>
+        <v>-0.7956519722938538</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1088867336511612</v>
+        <v>2.105194330215454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0616973899304866</v>
+        <v>-0.7250970602035522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0007635815418325</v>
+        <v>0.1913535445928573</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0584903471171855</v>
+        <v>-1.910022854804993</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0714712366461753</v>
+        <v>0.7344127297401428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.2770273983478546</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.6440047025680542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0597120784223079</v>
+        <v>0.5427537560462952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.4552473127841949</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.961766481399536</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.498757839202881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4912883639335632</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5406157374382019</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1117883399128913</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2916881442070007</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0818559452891349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1504255682229995</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.470518946647644</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2368630021810531</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1156062483787536</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.0591012127697467</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1562287807464599</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0158824957907199</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0618501044809818</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.14553864300251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0102319931611418</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1088867336511612</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0616973899304866</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0584903471171855</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0311541277915239</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>-0.0137444678694009</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>-0.1533271819353103</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.016951510682702</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0186313893646001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1244637966156005</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0003054326225537</v>
       </c>
     </row>
   </sheetData>
